--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -426,7 +426,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -434,34 +434,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.4765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.65625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2192,7 +2193,7 @@
         <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>107</v>
@@ -2212,7 +2213,7 @@
         <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>107</v>
@@ -2232,7 +2233,7 @@
         <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>107</v>
@@ -2252,7 +2253,7 @@
         <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>107</v>
@@ -2407,273 +2408,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF7A9386-4919-44E1-8E5B-EF205A6D13C4}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A902A9E-1FB7-4B1A-9E22-E9A5DC0420EC}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{403009C3-AD19-437F-ABF2-E651E0842D4E}"/>
 </file>
--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -2273,7 +2273,7 @@
         <v>106</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>126</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -451,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -463,6 +469,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -484,45 +491,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -544,1865 +560,2147 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -469,7 +469,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1699,7 +1699,7 @@
         <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>85</v>
@@ -2228,7 +2228,7 @@
         <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>105</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Esito accertamento di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.2</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Esito accertamento di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.2</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -561,2146 +564,2146 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -197,6 +197,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -396,6 +402,9 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -460,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1012,7 +1021,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>39</v>
@@ -1104,7 +1113,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -1219,7 +1228,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>39</v>
@@ -1282,19 +1291,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1305,19 +1314,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1328,19 +1337,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1351,19 +1360,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1374,19 +1383,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1397,19 +1406,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1420,19 +1429,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1443,19 +1452,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1466,19 +1475,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1489,19 +1498,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1512,19 +1521,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1535,19 +1544,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1558,7 +1567,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>95</v>
@@ -1567,10 +1576,10 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1581,7 +1590,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>96</v>
@@ -1590,10 +1599,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1604,19 +1613,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1627,19 +1636,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1650,7 +1659,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>99</v>
@@ -1659,10 +1668,10 @@
         <v>38</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1673,7 +1682,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>100</v>
@@ -1682,10 +1691,10 @@
         <v>38</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1696,7 +1705,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>101</v>
@@ -1705,10 +1714,10 @@
         <v>38</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1728,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1751,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1774,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1797,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1820,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1843,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1866,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1889,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1912,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1935,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1958,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1981,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1995,7 +2004,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>91</v>
@@ -2004,10 +2013,10 @@
         <v>38</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2018,7 +2027,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>92</v>
@@ -2027,10 +2036,10 @@
         <v>38</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2050,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2073,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2096,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2119,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2142,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2165,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2188,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2211,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2234,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2257,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2280,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2303,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2326,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2340,19 +2349,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2363,19 +2372,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2386,19 +2395,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2409,19 +2418,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2441,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2464,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2487,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2510,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2533,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2556,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2579,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2602,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2625,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2648,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2671,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2685,24 +2694,116 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -2631,7 +2631,7 @@
         <v>61</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>112</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -257,6 +257,30 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>flag dichiarante</t>
   </si>
   <si>
@@ -324,6 +348,12 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Indirizzo PEC</t>
@@ -469,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -479,7 +509,7 @@
     <col min="2" max="2" width="35.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1251,7 +1281,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>39</v>
@@ -1274,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>39</v>
@@ -1297,7 +1327,7 @@
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>39</v>
@@ -1314,19 +1344,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1337,19 +1367,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1360,19 +1390,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1383,19 +1413,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1406,19 +1436,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1429,19 +1459,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1452,19 +1482,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1475,19 +1505,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1498,19 +1528,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1521,19 +1551,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1544,19 +1574,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1567,19 +1597,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1590,19 +1620,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1613,19 +1643,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1666,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1689,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1712,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1735,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1758,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1781,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1804,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1827,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1850,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1873,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1896,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1919,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1942,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1965,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1988,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1981,19 +2011,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2034,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2057,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2080,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2103,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2126,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2149,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2172,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2165,7 +2195,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
@@ -2174,10 +2204,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2188,7 +2218,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>98</v>
@@ -2197,10 +2227,10 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2211,7 +2241,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>99</v>
@@ -2220,10 +2250,10 @@
         <v>38</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2234,7 +2264,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>100</v>
@@ -2243,10 +2273,10 @@
         <v>38</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2257,7 +2287,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>101</v>
@@ -2266,10 +2296,10 @@
         <v>38</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2280,7 +2310,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>102</v>
@@ -2289,10 +2319,10 @@
         <v>38</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2333,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2356,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2379,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2402,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2425,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2448,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2471,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2494,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2517,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2540,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2563,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2586,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2609,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2632,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2655,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2678,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2701,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2724,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2747,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2770,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2793,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2786,24 +2816,346 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,6 +149,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -323,10 +329,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -499,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -867,7 +870,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
@@ -959,7 +962,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
@@ -1074,7 +1077,7 @@
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>39</v>
@@ -1166,7 +1169,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -1373,7 +1376,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>39</v>
@@ -1436,19 +1439,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1459,19 +1462,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1485,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1508,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1531,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1554,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1577,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1600,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1620,7 +1623,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>101</v>
@@ -1629,10 +1632,10 @@
         <v>38</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>102</v>
@@ -1652,10 +1655,10 @@
         <v>38</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1669,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1692,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1715,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1738,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1761,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1784,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1807,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1830,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1853,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1876,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1899,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1922,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1945,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1968,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1988,19 +1991,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2014,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2037,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2060,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2083,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2106,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2129,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2152,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2175,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2198,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2221,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2244,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2267,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2290,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2313,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2336,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2359,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2382,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2405,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2428,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2451,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2474,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2497,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2520,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2543,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2566,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2589,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2612,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2635,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2658,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2681,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2704,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2727,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2747,10 +2750,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>38</v>
@@ -2759,7 +2762,7 @@
         <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2773,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2793,19 +2796,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2816,19 +2819,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2839,19 +2842,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2862,19 +2865,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2888,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2908,19 +2911,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2931,19 +2934,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2957,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2980,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3003,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3026,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3049,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3072,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3092,19 +3095,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3115,19 +3118,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3138,24 +3141,93 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1146,7 +1152,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -1169,7 +1175,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -1399,7 +1405,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>39</v>
@@ -1462,19 +1468,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1485,19 +1491,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1508,19 +1514,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1531,19 +1537,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1554,19 +1560,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1577,19 +1583,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1600,19 +1606,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1629,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1721,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1744,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1790,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1813,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1830,7 +1836,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>108</v>
@@ -1839,10 +1845,10 @@
         <v>38</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1853,7 +1859,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>109</v>
@@ -1862,10 +1868,10 @@
         <v>38</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1876,7 +1882,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>110</v>
@@ -1885,10 +1891,10 @@
         <v>38</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1899,7 +1905,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
@@ -1908,10 +1914,10 @@
         <v>38</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1922,7 +1928,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>112</v>
@@ -1931,10 +1937,10 @@
         <v>38</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1951,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1968,19 +1974,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1991,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2043,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2060,19 +2066,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2089,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2112,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2135,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2158,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2181,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2204,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2227,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2250,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2273,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2296,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2319,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2342,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2359,7 +2365,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>103</v>
@@ -2368,10 +2374,10 @@
         <v>38</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2382,7 +2388,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>104</v>
@@ -2391,10 +2397,10 @@
         <v>38</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2411,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2434,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2451,19 +2457,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2474,19 +2480,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>107</v>
@@ -2506,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2520,19 +2526,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2543,19 +2549,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2566,19 +2572,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2589,19 +2595,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2618,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2641,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2658,19 +2664,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2681,19 +2687,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2704,19 +2710,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2727,19 +2733,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2750,19 +2756,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2779,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2796,19 +2802,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2825,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2848,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2865,19 +2871,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2888,19 +2894,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2911,19 +2917,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2934,19 +2940,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2957,19 +2963,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2980,19 +2986,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3003,19 +3009,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3032,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3055,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3078,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3101,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3118,19 +3124,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3141,19 +3147,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3164,19 +3170,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3187,19 +3193,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3210,24 +3216,93 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1816,7 +1822,7 @@
         <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>38</v>
@@ -1825,7 +1831,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1839,7 +1845,7 @@
         <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>38</v>
@@ -1848,7 +1854,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1862,7 +1868,7 @@
         <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>38</v>
@@ -1871,7 +1877,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1885,7 +1891,7 @@
         <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>38</v>
@@ -1894,7 +1900,7 @@
         <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1908,7 +1914,7 @@
         <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>38</v>
@@ -1917,7 +1923,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1931,7 +1937,7 @@
         <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>38</v>
@@ -1940,7 +1946,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1954,7 +1960,7 @@
         <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>38</v>
@@ -1963,7 +1969,7 @@
         <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1977,7 +1983,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>38</v>
@@ -1986,7 +1992,7 @@
         <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2000,16 +2006,16 @@
         <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2023,7 +2029,7 @@
         <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -2032,7 +2038,7 @@
         <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2046,7 +2052,7 @@
         <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -2055,7 +2061,7 @@
         <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2069,16 +2075,16 @@
         <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2092,7 +2098,7 @@
         <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>38</v>
@@ -2101,7 +2107,7 @@
         <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2115,7 +2121,7 @@
         <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>38</v>
@@ -2124,7 +2130,7 @@
         <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2138,7 +2144,7 @@
         <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>38</v>
@@ -2147,7 +2153,7 @@
         <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2161,7 +2167,7 @@
         <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>38</v>
@@ -2170,7 +2176,7 @@
         <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2190,10 +2196,10 @@
         <v>38</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2233,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2302,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2325,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2348,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2371,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2417,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2440,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2463,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2549,7 +2555,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>108</v>
@@ -2558,10 +2564,10 @@
         <v>38</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2578,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2595,7 +2601,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>110</v>
@@ -2604,10 +2610,10 @@
         <v>38</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2618,7 +2624,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>111</v>
@@ -2627,10 +2633,10 @@
         <v>38</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2641,7 +2647,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>112</v>
@@ -2650,10 +2656,10 @@
         <v>38</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2664,7 +2670,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>113</v>
@@ -2673,10 +2679,10 @@
         <v>38</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2687,7 +2693,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>114</v>
@@ -2696,10 +2702,10 @@
         <v>38</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2716,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2733,19 +2739,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2756,19 +2762,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2779,19 +2785,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2802,19 +2808,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2825,19 +2831,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2848,19 +2854,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2894,19 +2900,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2917,19 +2923,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2963,19 +2969,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2986,19 +2992,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3009,19 +3015,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3032,19 +3038,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3055,19 +3061,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3078,19 +3084,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3101,19 +3107,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3124,19 +3130,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3147,19 +3153,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3170,19 +3176,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3193,19 +3199,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3216,19 +3222,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3239,19 +3245,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3262,19 +3268,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3285,24 +3291,70 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -387,6 +387,81 @@
   </si>
   <si>
     <t>evento.padre.recapito</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -514,13 +589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
@@ -2975,7 +3050,7 @@
         <v>126</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>127</v>
@@ -2987,7 +3062,7 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
@@ -2995,22 +3070,22 @@
         <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
@@ -3018,22 +3093,22 @@
         <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
@@ -3041,22 +3116,22 @@
         <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
@@ -3064,22 +3139,22 @@
         <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
@@ -3087,7 +3162,7 @@
         <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>38</v>
@@ -3096,13 +3171,13 @@
         <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113">
@@ -3125,7 +3200,7 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114">
@@ -3142,13 +3217,13 @@
         <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115">
@@ -3156,7 +3231,7 @@
         <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>38</v>
@@ -3165,13 +3240,13 @@
         <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
@@ -3179,7 +3254,7 @@
         <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>38</v>
@@ -3194,70 +3269,70 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3268,19 +3343,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3291,19 +3366,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3314,19 +3389,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3337,24 +3412,300 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -589,14 +595,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1509,7 +1515,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>39</v>
@@ -1572,19 +1578,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1595,19 +1601,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1618,19 +1624,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1641,19 +1647,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1664,19 +1670,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1710,19 +1716,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1733,19 +1739,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1762,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1808,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1831,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1854,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1900,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1923,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1946,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1986,19 +1992,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2061,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2124,7 +2130,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>95</v>
@@ -2133,7 +2139,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>96</v>
@@ -2147,7 +2153,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>97</v>
@@ -2156,7 +2162,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>98</v>
@@ -2170,19 +2176,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2199,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2222,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2285,7 +2291,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>119</v>
@@ -2294,10 +2300,10 @@
         <v>38</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2314,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2360,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2383,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2406,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2429,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2452,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2544,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2561,19 +2567,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2590,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2613,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2636,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2659,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2682,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2705,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2751,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2774,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2797,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2820,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2843,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2860,7 +2866,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>95</v>
@@ -2869,7 +2875,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>96</v>
@@ -2883,7 +2889,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>97</v>
@@ -2892,7 +2898,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>98</v>
@@ -2906,19 +2912,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2929,19 +2935,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2958,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2975,19 +2981,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2998,19 +3004,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3021,7 +3027,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>119</v>
@@ -3030,10 +3036,10 @@
         <v>38</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3044,53 +3050,53 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>132</v>
@@ -3099,7 +3105,7 @@
         <v>38</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>133</v>
@@ -3108,12 +3114,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>134</v>
@@ -3122,7 +3128,7 @@
         <v>38</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>135</v>
@@ -3131,12 +3137,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>136</v>
@@ -3145,7 +3151,7 @@
         <v>38</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>137</v>
@@ -3154,12 +3160,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>138</v>
@@ -3168,44 +3174,44 @@
         <v>38</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>141</v>
@@ -3214,44 +3220,44 @@
         <v>38</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>144</v>
@@ -3260,7 +3266,7 @@
         <v>38</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>145</v>
@@ -3269,12 +3275,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>146</v>
@@ -3283,7 +3289,7 @@
         <v>38</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>147</v>
@@ -3292,12 +3298,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>148</v>
@@ -3306,7 +3312,7 @@
         <v>38</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>149</v>
@@ -3315,44 +3321,44 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>155</v>
@@ -3366,7 +3372,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>156</v>
@@ -3375,7 +3381,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>157</v>
@@ -3389,7 +3395,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>158</v>
@@ -3398,7 +3404,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>159</v>
@@ -3412,7 +3418,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>160</v>
@@ -3421,7 +3427,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>161</v>
@@ -3435,16 +3441,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>163</v>
@@ -3458,7 +3464,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>164</v>
@@ -3467,7 +3473,7 @@
         <v>38</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>165</v>
@@ -3481,7 +3487,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>166</v>
@@ -3490,7 +3496,7 @@
         <v>38</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>167</v>
@@ -3504,7 +3510,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>168</v>
@@ -3513,7 +3519,7 @@
         <v>38</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>169</v>
@@ -3527,19 +3533,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3550,19 +3556,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3573,16 +3579,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>155</v>
@@ -3596,7 +3602,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>156</v>
@@ -3605,7 +3611,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>157</v>
@@ -3619,19 +3625,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3642,16 +3648,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>165</v>
@@ -3665,16 +3671,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>167</v>
@@ -3688,16 +3694,16 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>169</v>
@@ -3706,6 +3712,29 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,12 +291,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -595,14 +589,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1515,7 +1509,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>39</v>
@@ -1578,19 +1572,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1601,19 +1595,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1624,19 +1618,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1647,19 +1641,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1670,19 +1664,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1693,19 +1687,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1716,19 +1710,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1733,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1756,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1779,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1802,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1825,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1848,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1871,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1894,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1917,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1940,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1963,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1986,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2009,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2032,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2055,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2078,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2101,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2130,7 +2124,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>95</v>
@@ -2139,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>96</v>
@@ -2153,7 +2147,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>97</v>
@@ -2162,7 +2156,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>98</v>
@@ -2176,19 +2170,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2193,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2216,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2239,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2262,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2291,7 +2285,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>119</v>
@@ -2300,10 +2294,10 @@
         <v>38</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2308,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2331,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2354,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2377,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2400,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2423,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2446,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2469,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2492,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2515,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2538,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2561,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2584,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2607,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2630,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2653,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2676,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2699,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2722,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2745,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2768,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2791,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2814,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2837,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2866,7 +2860,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>95</v>
@@ -2875,7 +2869,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>96</v>
@@ -2889,7 +2883,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>97</v>
@@ -2898,7 +2892,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>98</v>
@@ -2912,19 +2906,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2929,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2952,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2975,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3004,19 +2998,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3027,7 +3021,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>119</v>
@@ -3036,10 +3030,10 @@
         <v>38</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3050,53 +3044,53 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>132</v>
@@ -3105,7 +3099,7 @@
         <v>38</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>133</v>
@@ -3114,12 +3108,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>134</v>
@@ -3128,7 +3122,7 @@
         <v>38</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>135</v>
@@ -3137,12 +3131,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>136</v>
@@ -3151,7 +3145,7 @@
         <v>38</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>137</v>
@@ -3160,12 +3154,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>138</v>
@@ -3174,44 +3168,44 @@
         <v>38</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>141</v>
@@ -3220,44 +3214,44 @@
         <v>38</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>144</v>
@@ -3266,7 +3260,7 @@
         <v>38</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>145</v>
@@ -3275,12 +3269,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>146</v>
@@ -3289,7 +3283,7 @@
         <v>38</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>147</v>
@@ -3298,12 +3292,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>148</v>
@@ -3312,7 +3306,7 @@
         <v>38</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>149</v>
@@ -3321,44 +3315,44 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>155</v>
@@ -3372,7 +3366,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>156</v>
@@ -3381,7 +3375,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>157</v>
@@ -3395,7 +3389,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>158</v>
@@ -3404,7 +3398,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>159</v>
@@ -3418,7 +3412,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>160</v>
@@ -3427,7 +3421,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>161</v>
@@ -3441,16 +3435,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>163</v>
@@ -3464,7 +3458,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>164</v>
@@ -3473,7 +3467,7 @@
         <v>38</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>165</v>
@@ -3487,7 +3481,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>166</v>
@@ -3496,7 +3490,7 @@
         <v>38</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>167</v>
@@ -3510,7 +3504,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>168</v>
@@ -3519,7 +3513,7 @@
         <v>38</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>169</v>
@@ -3533,19 +3527,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3556,19 +3550,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3579,16 +3573,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>155</v>
@@ -3602,7 +3596,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>156</v>
@@ -3611,7 +3605,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>157</v>
@@ -3625,19 +3619,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3648,16 +3642,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>165</v>
@@ -3671,16 +3665,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>167</v>
@@ -3694,16 +3688,16 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>169</v>
@@ -3712,29 +3706,6 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -595,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1009,7 +1021,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
@@ -1032,7 +1044,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -1078,7 +1090,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>39</v>
@@ -1101,7 +1113,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
@@ -1193,7 +1205,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>39</v>
@@ -1216,7 +1228,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>39</v>
@@ -1239,7 +1251,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -1262,7 +1274,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -1538,7 +1550,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>39</v>
@@ -1561,7 +1573,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>39</v>
@@ -1601,19 +1613,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1624,19 +1636,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1647,19 +1659,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1670,19 +1682,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1693,19 +1705,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1716,19 +1728,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1751,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1774,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1797,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1820,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1843,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1866,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1889,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1912,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1935,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1958,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1981,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1992,19 +2004,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2015,7 +2027,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>114</v>
@@ -2024,10 +2036,10 @@
         <v>38</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2050,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2061,7 +2073,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>116</v>
@@ -2070,10 +2082,10 @@
         <v>38</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2084,7 +2096,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>117</v>
@@ -2093,10 +2105,10 @@
         <v>38</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2107,7 +2119,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>118</v>
@@ -2116,10 +2128,10 @@
         <v>38</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2142,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2165,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2188,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2211,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2234,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2257,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2280,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2303,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2326,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2349,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2372,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2395,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2418,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2441,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2464,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2487,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2510,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2533,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2556,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2579,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2602,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2625,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2648,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2659,7 +2671,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>110</v>
@@ -2668,10 +2680,10 @@
         <v>38</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2694,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2705,7 +2717,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>112</v>
@@ -2714,10 +2726,10 @@
         <v>38</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2740,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2763,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2786,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2809,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2832,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2855,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2878,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2901,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2924,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2947,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2970,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2993,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3016,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3039,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3062,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3073,10 +3085,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>38</v>
@@ -3085,21 +3097,21 @@
         <v>129</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>38</v>
@@ -3108,21 +3120,21 @@
         <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>38</v>
@@ -3131,21 +3143,21 @@
         <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>38</v>
@@ -3154,21 +3166,21 @@
         <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>38</v>
@@ -3177,329 +3189,329 @@
         <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3510,19 +3522,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3533,19 +3545,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3556,19 +3568,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3579,19 +3591,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3602,19 +3614,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3625,19 +3637,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3648,19 +3660,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3671,19 +3683,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3694,19 +3706,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3717,24 +3729,162 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
+      <c r="C142" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>18</v>
       </c>
     </row>
